--- a/Project 2/Documents/OctaveDocuments/SalterOutput/output1SaltedGraph.xlsx
+++ b/Project 2/Documents/OctaveDocuments/SalterOutput/output1SaltedGraph.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rance\OneDrive\Documents\My Files\Other\College Class Materials\ThirdYearSpring\Probability and Applied Statistics\Projects\Project 2\Documents\OctaveDocuments\SalterOutput\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rance\OneDrive\Documents\My Files\Other\College Class Materials\ThirdYearSpring\Probability and Applied Statistics\Projects\Project 2\Octave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25822848-F182-440E-BD9C-AA77DC0445DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64E22F1B-272E-4B7D-BAEF-B9320A0488F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{1E508690-DE7A-4D96-95EC-444A81621B98}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{E830C714-90C7-43F5-BDC4-A20E8D94265E}"/>
   </bookViews>
   <sheets>
     <sheet name="output1Salted" sheetId="1" r:id="rId1"/>
@@ -593,16 +593,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Salted Output (Range:</a:t>
+              <a:t>Salted Output (Range: 10 - 50)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> 10 - 50)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30909011373578305"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -979,304 +982,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>-22</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>62</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>86</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>95</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>111</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>150</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>91</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>179</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>186</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>173</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>182</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>219</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>340</c:v>
+                  <c:v>275</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>362</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>346</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>417</c:v>
+                  <c:v>434</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>401</c:v>
+                  <c:v>483</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>445</c:v>
+                  <c:v>515</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>560</c:v>
+                  <c:v>518</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>546</c:v>
+                  <c:v>549</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>661</c:v>
+                  <c:v>664</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>727</c:v>
+                  <c:v>694</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>682</c:v>
+                  <c:v>691</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>753</c:v>
+                  <c:v>763</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>871</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>920</c:v>
+                  <c:v>857</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>982</c:v>
+                  <c:v>994</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1041</c:v>
+                  <c:v>1063</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1121</c:v>
+                  <c:v>1130</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1143</c:v>
+                  <c:v>1182</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1249</c:v>
+                  <c:v>1251</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1275</c:v>
+                  <c:v>1260</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1401</c:v>
+                  <c:v>1389</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1410</c:v>
+                  <c:v>1417</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1476</c:v>
+                  <c:v>1473</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1579</c:v>
+                  <c:v>1621</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1730</c:v>
+                  <c:v>1659</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1799</c:v>
+                  <c:v>1726</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1838</c:v>
+                  <c:v>1881</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1900</c:v>
+                  <c:v>1961</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1992</c:v>
+                  <c:v>2059</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2102</c:v>
+                  <c:v>2071</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2252</c:v>
+                  <c:v>2165</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2268</c:v>
+                  <c:v>2352</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2427</c:v>
+                  <c:v>2377</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2464</c:v>
+                  <c:v>2519</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2563</c:v>
+                  <c:v>2642</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2677</c:v>
+                  <c:v>2694</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2836</c:v>
+                  <c:v>2850</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2942</c:v>
+                  <c:v>2951</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2986</c:v>
+                  <c:v>2991</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3108</c:v>
+                  <c:v>3089</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3207</c:v>
+                  <c:v>3298</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3414</c:v>
+                  <c:v>3340</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3452</c:v>
+                  <c:v>3496</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3652</c:v>
+                  <c:v>3620</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3678</c:v>
+                  <c:v>3760</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3810</c:v>
+                  <c:v>3877</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3923</c:v>
+                  <c:v>3987</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4113</c:v>
+                  <c:v>4112</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4178</c:v>
+                  <c:v>4256</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4369</c:v>
+                  <c:v>4384</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4524</c:v>
+                  <c:v>4463</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4658</c:v>
+                  <c:v>4668</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4747</c:v>
+                  <c:v>4734</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4933</c:v>
+                  <c:v>4858</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5057</c:v>
+                  <c:v>5070</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5214</c:v>
+                  <c:v>5147</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5346</c:v>
+                  <c:v>5294</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5452</c:v>
+                  <c:v>5515</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5597</c:v>
+                  <c:v>5587</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5811</c:v>
+                  <c:v>5742</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5967</c:v>
+                  <c:v>5947</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>6105</c:v>
+                  <c:v>6115</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>6225</c:v>
+                  <c:v>6193</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>6361</c:v>
+                  <c:v>6450</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>6549</c:v>
+                  <c:v>6586</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>6761</c:v>
+                  <c:v>6758</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>6871</c:v>
+                  <c:v>6932</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>7031</c:v>
+                  <c:v>7083</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>7259</c:v>
+                  <c:v>7273</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>7441</c:v>
+                  <c:v>7369</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>7615</c:v>
+                  <c:v>7605</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>7724</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>7960</c:v>
+                  <c:v>7901</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>8066</c:v>
+                  <c:v>8061</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>8312</c:v>
+                  <c:v>8327</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>8454</c:v>
+                  <c:v>8513</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>8607</c:v>
+                  <c:v>8691</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>8803</c:v>
+                  <c:v>8885</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>9069</c:v>
+                  <c:v>9039</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9207</c:v>
+                  <c:v>9203</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>9393</c:v>
+                  <c:v>9429</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>9617</c:v>
+                  <c:v>9656</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9775</c:v>
+                  <c:v>9781</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>9986</c:v>
+                  <c:v>10024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1284,7 +1287,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F3E4-49AB-914A-2DFE3A48CCD3}"/>
+              <c16:uniqueId val="{00000000-621A-462C-81F7-4EF87498E659}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1296,11 +1299,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="27795007"/>
-        <c:axId val="27795967"/>
+        <c:axId val="1933575247"/>
+        <c:axId val="1933575727"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="27795007"/>
+        <c:axId val="1933575247"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1412,12 +1415,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27795967"/>
+        <c:crossAx val="1933575727"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="27795967"/>
+        <c:axId val="1933575727"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1529,7 +1532,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27795007"/>
+        <c:crossAx val="1933575247"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2139,22 +2142,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CF905C9-65A3-5584-D48C-81D82F25DD7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0A83390-5C46-BFAD-CD8E-0F35064CCC43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2491,7 +2494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C36C4B4-1D27-4E39-8209-3B4D1CC26678}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7560263-077C-47CC-8F86-89892878F8F6}">
   <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2505,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>-22</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2513,7 +2516,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>37</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2521,7 +2524,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2529,7 +2532,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>44</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2537,7 +2540,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>62</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2545,7 +2548,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2553,7 +2556,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2561,7 +2564,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>95</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2569,7 +2572,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2577,7 +2580,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2585,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2593,7 +2596,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>179</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2601,7 +2604,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>186</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2609,7 +2612,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2617,7 +2620,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2625,7 +2628,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>219</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2633,7 +2636,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>340</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -2641,7 +2644,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>362</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -2649,7 +2652,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>346</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -2657,7 +2660,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>417</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -2665,7 +2668,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>401</v>
+        <v>483</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -2673,7 +2676,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>445</v>
+        <v>515</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -2681,7 +2684,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>560</v>
+        <v>518</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -2689,7 +2692,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -2697,7 +2700,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -2705,7 +2708,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>727</v>
+        <v>694</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -2713,7 +2716,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>682</v>
+        <v>691</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -2721,7 +2724,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>753</v>
+        <v>763</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -2729,7 +2732,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>871</v>
+        <v>800</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -2737,7 +2740,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>920</v>
+        <v>857</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -2745,7 +2748,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>982</v>
+        <v>994</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -2753,7 +2756,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1041</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -2761,7 +2764,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1121</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -2769,7 +2772,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1143</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -2777,7 +2780,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1249</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -2785,7 +2788,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1275</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -2793,7 +2796,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1401</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -2801,7 +2804,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1410</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -2809,7 +2812,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1476</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -2817,7 +2820,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1579</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -2825,7 +2828,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1730</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -2833,7 +2836,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1799</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -2841,7 +2844,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1838</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -2849,7 +2852,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1900</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -2857,7 +2860,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1992</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -2865,7 +2868,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>2102</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -2873,7 +2876,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>2252</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -2881,7 +2884,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>2268</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -2889,7 +2892,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>2427</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -2897,7 +2900,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>2464</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -2905,7 +2908,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>2563</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -2913,7 +2916,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>2677</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -2921,7 +2924,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>2836</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -2929,7 +2932,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>2942</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -2937,7 +2940,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>2986</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -2945,7 +2948,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>3108</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -2953,7 +2956,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>3207</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -2961,7 +2964,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>3414</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -2969,7 +2972,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>3452</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -2977,7 +2980,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>3652</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -2985,7 +2988,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>3678</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -2993,7 +2996,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>3810</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -3001,7 +3004,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>3923</v>
+        <v>3987</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -3009,7 +3012,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>4113</v>
+        <v>4112</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -3017,7 +3020,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>4178</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -3025,7 +3028,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>4369</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -3033,7 +3036,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>4524</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -3041,7 +3044,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>4658</v>
+        <v>4668</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -3049,7 +3052,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>4747</v>
+        <v>4734</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -3057,7 +3060,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>4933</v>
+        <v>4858</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -3065,7 +3068,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>5057</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -3073,7 +3076,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>5214</v>
+        <v>5147</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -3081,7 +3084,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>5346</v>
+        <v>5294</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -3089,7 +3092,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>5452</v>
+        <v>5515</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -3097,7 +3100,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>5597</v>
+        <v>5587</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -3105,7 +3108,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>5811</v>
+        <v>5742</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -3113,7 +3116,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>5967</v>
+        <v>5947</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -3121,7 +3124,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>6105</v>
+        <v>6115</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -3129,7 +3132,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>6225</v>
+        <v>6193</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -3137,7 +3140,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>6361</v>
+        <v>6450</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -3145,7 +3148,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>6549</v>
+        <v>6586</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -3153,7 +3156,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>6761</v>
+        <v>6758</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -3161,7 +3164,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>6871</v>
+        <v>6932</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -3169,7 +3172,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>7031</v>
+        <v>7083</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -3177,7 +3180,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>7259</v>
+        <v>7273</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -3185,7 +3188,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>7441</v>
+        <v>7369</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -3193,7 +3196,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>7615</v>
+        <v>7605</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -3209,7 +3212,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>7960</v>
+        <v>7901</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -3217,7 +3220,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>8066</v>
+        <v>8061</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -3225,7 +3228,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>8312</v>
+        <v>8327</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -3233,7 +3236,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>8454</v>
+        <v>8513</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -3241,7 +3244,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>8607</v>
+        <v>8691</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -3249,7 +3252,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>8803</v>
+        <v>8885</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -3257,7 +3260,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>9069</v>
+        <v>9039</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -3265,7 +3268,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>9207</v>
+        <v>9203</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -3273,7 +3276,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>9393</v>
+        <v>9429</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -3281,7 +3284,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>9617</v>
+        <v>9656</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -3289,7 +3292,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>9775</v>
+        <v>9781</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -3297,7 +3300,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>9986</v>
+        <v>10024</v>
       </c>
     </row>
   </sheetData>
